--- a/notes/01_learning/nea.xlsx
+++ b/notes/01_learning/nea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newhallschool-my.sharepoint.com/personal/chinghey_lau_newhallstudent_co_uk/Documents/00_all/01_Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newhallschool-my.sharepoint.com/personal/chinghey_lau_newhallstudent_co_uk/Documents/00_all/git/notes/01_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1579" documentId="8_{7144A023-F6E4-4B32-813B-855D5AB26402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A84D1F-7EF3-47F0-92B8-96914AB4E9F9}"/>
+  <xr:revisionPtr revIDLastSave="1583" documentId="8_{7144A023-F6E4-4B32-813B-855D5AB26402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E03D1D1-EFDE-4E00-9B95-144D0336C34F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{755A6EBC-5ADF-441F-A7A8-7A5176E63BA7}"/>
+    <workbookView xWindow="1200" yWindow="2808" windowWidth="16656" windowHeight="9420" xr2:uid="{755A6EBC-5ADF-441F-A7A8-7A5176E63BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -56,75 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="455">
-  <si>
-    <t>shalev.ml office azure, server AD, search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amazon seller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thrermodynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup 4t to 8t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spotify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synthesis QP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youtube video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eu.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire TV android TV app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin google, exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>build my own GPT app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>google voice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android app for Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method() definition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="423">
   <si>
     <t>degree</t>
   </si>
@@ -144,55 +76,12 @@
     <t>needed to remove</t>
   </si>
   <si>
-    <t>Android App for face tracking and IP camera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment my code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect linkedin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testing and evalution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obsidian everything</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onenote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setup syncthing/ live server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turnAround xyspeed 2- 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparison of comparable software damage cal </t>
-  </si>
-  <si>
-    <t>SettingPanel As prefab and set close button to save to singleton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login system, </t>
   </si>
   <si>
-    <t>pixelise? Sandbox/ openworld?</t>
-  </si>
-  <si>
     <t>setting menu(sound, graphic, language),</t>
   </si>
   <si>
-    <t>terrain</t>
-  </si>
-  <si>
     <t>percentage</t>
   </si>
   <si>
@@ -200,9 +89,6 @@
   </si>
   <si>
     <t>+-3</t>
-  </si>
-  <si>
-    <t>mainmenu continue</t>
   </si>
   <si>
     <t>reverse</t>
@@ -1755,12 +1641,6 @@
   </si>
   <si>
     <t>77</t>
-  </si>
-  <si>
-    <t>spritual day</t>
-  </si>
-  <si>
-    <t>Evalution and timestamp</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1906,7 +1786,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2532,97 +2411,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21790D8E-3A4C-4589-9999-34778F4FB1DD}">
   <dimension ref="A1:AE139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="61.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="61.09765625" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
-    <col min="9" max="9" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
     <col min="10" max="10" width="68.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="4.375" customWidth="1"/>
+    <col min="11" max="11" width="20.3984375" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" customWidth="1"/>
     <col min="13" max="16" width="19.5"/>
-    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" customWidth="1"/>
     <col min="18" max="18" width="59" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="23.625" customWidth="1"/>
+    <col min="20" max="20" width="23.59765625" customWidth="1"/>
     <col min="21" max="21" width="19.5"/>
-    <col min="22" max="22" width="53.25" customWidth="1"/>
+    <col min="22" max="22" width="53.19921875" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="2.625" customWidth="1"/>
-    <col min="25" max="25" width="9.75" customWidth="1"/>
-    <col min="26" max="26" width="6.75" customWidth="1"/>
-    <col min="27" max="27" width="2.875" customWidth="1"/>
-    <col min="28" max="28" width="18.25" customWidth="1"/>
-    <col min="29" max="29" width="6.375" customWidth="1"/>
+    <col min="24" max="24" width="2.59765625" customWidth="1"/>
+    <col min="25" max="25" width="9.69921875" customWidth="1"/>
+    <col min="26" max="26" width="6.69921875" customWidth="1"/>
+    <col min="27" max="27" width="2.8984375" customWidth="1"/>
+    <col min="28" max="28" width="18.19921875" customWidth="1"/>
+    <col min="29" max="29" width="6.3984375" customWidth="1"/>
     <col min="30" max="30" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2656,9 +2525,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="D10">
         <v>23</v>
       </c>
@@ -2688,9 +2555,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="D11">
         <v>55</v>
       </c>
@@ -2719,9 +2584,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="D12">
         <v>90</v>
       </c>
@@ -2809,15 +2672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16">
         <v>175</v>
       </c>
@@ -2825,175 +2680,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="49.5">
-      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="27" spans="1:31" ht="50.4">
+      <c r="A27" s="2"/>
       <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="21">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="20">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="Y27" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="Z27" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="A28" s="2"/>
+      <c r="D28" s="7">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>61</v>
+      <c r="F28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="P28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" s="22">
+        <v>32</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="P28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" s="21">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="Y28">
@@ -3004,40 +2832,38 @@
       </c>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="A29" s="2"/>
+      <c r="D29" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>69</v>
+      <c r="G29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W29" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="20">
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="Y29">
@@ -3046,51 +2872,49 @@
       <c r="Z29">
         <v>2</v>
       </c>
-      <c r="AD29" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE29" s="16" t="s">
-        <v>48</v>
+      <c r="AD29" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE29" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="A30" s="2"/>
+      <c r="D30" s="7">
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>75</v>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W30" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="21">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="Y30">
@@ -3099,48 +2923,46 @@
       <c r="Z30">
         <v>3</v>
       </c>
-      <c r="AD30" s="19">
+      <c r="AD30" s="18">
         <v>22</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="A31" s="2"/>
+      <c r="D31" s="7">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>80</v>
+      <c r="G31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W31" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W31" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Y31">
@@ -3149,46 +2971,44 @@
       <c r="Z31">
         <v>4</v>
       </c>
-      <c r="AD31" s="20">
+      <c r="AD31" s="19">
         <v>54</v>
       </c>
-      <c r="AE31" s="18">
+      <c r="AE31" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="A32" s="2"/>
+      <c r="E32" s="8">
         <v>5</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>84</v>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W32" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W32" s="21">
         <v>0.10694444444444444</v>
       </c>
       <c r="Y32">
@@ -3197,51 +3017,49 @@
       <c r="Z32">
         <v>6</v>
       </c>
-      <c r="AD32" s="19">
+      <c r="AD32" s="18">
         <v>102</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AE32" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="A33" s="2"/>
+      <c r="D33" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>6</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="F33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W33" s="21">
+      <c r="R33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W33" s="20">
         <v>0.11180555555555556</v>
       </c>
       <c r="Y33">
@@ -3250,50 +3068,50 @@
       <c r="Z33">
         <v>7</v>
       </c>
-      <c r="AD33" s="20">
+      <c r="AD33" s="19">
         <v>150</v>
       </c>
-      <c r="AE33" s="18">
+      <c r="AE33" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="2"/>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.10694444444444444</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>7</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>94</v>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="W34" s="22">
+      <c r="S34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="21">
         <v>0.13819444444444443</v>
       </c>
       <c r="Y34">
@@ -3302,49 +3120,47 @@
       <c r="Z34">
         <v>8</v>
       </c>
-      <c r="AD34" s="19">
+      <c r="AD34" s="18">
         <v>200</v>
       </c>
-      <c r="AE34" s="17">
+      <c r="AE34" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="A35" s="3"/>
+      <c r="D35" s="7">
         <v>0.11180555555555556</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>8</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>97</v>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W35" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="20">
         <v>0.14722222222222223</v>
       </c>
       <c r="Y35">
@@ -3353,49 +3169,46 @@
       <c r="Z35">
         <v>9</v>
       </c>
-      <c r="AD35" s="20">
+      <c r="AD35" s="19">
         <v>234</v>
       </c>
-      <c r="AE35" s="18">
+      <c r="AE35" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16.5">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="8">
+    <row r="36" spans="1:31">
+      <c r="D36" s="7">
         <v>0.13819444444444443</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>9</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="6" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>100</v>
+      <c r="H36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W36" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="21">
         <v>0.15555555555555556</v>
       </c>
       <c r="Y36">
@@ -3404,49 +3217,46 @@
       <c r="Z36">
         <v>10</v>
       </c>
-      <c r="AD36" s="19">
+      <c r="AD36" s="18">
         <v>241</v>
       </c>
-      <c r="AE36" s="17">
+      <c r="AE36" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16.5">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="8">
+    <row r="37" spans="1:31">
+      <c r="D37" s="7">
         <v>0.14722222222222223</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W37" s="21">
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W37" s="20">
         <v>0.16666666666666666</v>
       </c>
       <c r="Y37">
@@ -3455,47 +3265,46 @@
       <c r="Z37">
         <v>11</v>
       </c>
-      <c r="AD37" s="20">
+      <c r="AD37" s="19">
         <v>319</v>
       </c>
-      <c r="AE37" s="18">
+      <c r="AE37" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16.5">
-      <c r="A38" s="4"/>
-      <c r="D38" s="8">
+    <row r="38" spans="1:31">
+      <c r="D38" s="7">
         <v>0.15555555555555556</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>11</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>109</v>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W38" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W38" s="21">
         <v>0.18611111111111112</v>
       </c>
       <c r="Y38">
@@ -3504,50 +3313,49 @@
       <c r="Z38">
         <v>12</v>
       </c>
-      <c r="AD38" s="19">
+      <c r="AD38" s="18">
         <v>332</v>
       </c>
-      <c r="AE38" s="17">
+      <c r="AE38" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16.5">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:31">
       <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="8">
+        <v>81</v>
+      </c>
+      <c r="D39" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>12</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>115</v>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W39" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="20">
         <v>0.23958333333333334</v>
       </c>
       <c r="Y39">
@@ -3556,55 +3364,52 @@
       <c r="Z39">
         <v>13</v>
       </c>
-      <c r="AD39" s="20">
+      <c r="AD39" s="19">
         <v>344</v>
       </c>
-      <c r="AE39" s="18">
+      <c r="AE39" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
       <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="8">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7">
         <v>0.18611111111111112</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>13</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>120</v>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W40" s="22">
+        <v>32</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="21">
         <v>0.24791666666666667</v>
       </c>
       <c r="Y40">
@@ -3613,49 +3418,49 @@
       <c r="Z40">
         <v>14</v>
       </c>
-      <c r="AD40" s="19">
+      <c r="AD40" s="18">
         <v>400</v>
       </c>
-      <c r="AE40" s="17">
+      <c r="AE40" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16.5">
+    <row r="41" spans="1:31">
       <c r="A41" s="4"/>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>0.23958333333333334</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>14</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>124</v>
+      <c r="F41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W41" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="20">
         <v>0.25486111111111109</v>
       </c>
       <c r="Y41">
@@ -3664,46 +3469,46 @@
       <c r="Z41">
         <v>15</v>
       </c>
-      <c r="AD41" s="20">
+      <c r="AD41" s="19">
         <v>428</v>
       </c>
-      <c r="AE41" s="18">
+      <c r="AE41" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:31">
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>0.24791666666666667</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>15</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>127</v>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W42" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W42" s="21">
         <v>0.27083333333333331</v>
       </c>
       <c r="Y42">
@@ -3712,46 +3517,46 @@
       <c r="Z42">
         <v>17</v>
       </c>
-      <c r="AD42" s="19">
+      <c r="AD42" s="18">
         <v>545</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AE42" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:31">
       <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="9">
+        <v>99</v>
+      </c>
+      <c r="E43" s="8">
         <v>16</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W43" s="21">
+      <c r="F43" s="8"/>
+      <c r="G43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W43" s="20">
         <v>0.28472222222222221</v>
       </c>
       <c r="Y43">
@@ -3760,51 +3565,49 @@
       <c r="Z43">
         <v>18</v>
       </c>
-      <c r="AD43" s="20">
+      <c r="AD43" s="19">
         <v>557</v>
       </c>
-      <c r="AE43" s="18">
+      <c r="AE43" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="A44" s="10"/>
+      <c r="D44" s="7">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>17</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>137</v>
+      <c r="F44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="S44" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W44" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W44" s="21">
         <v>0.28611111111111115</v>
       </c>
       <c r="Y44">
@@ -3813,49 +3616,47 @@
       <c r="Z44">
         <v>19</v>
       </c>
-      <c r="AD44" s="19">
+      <c r="AD44" s="18">
         <v>607</v>
       </c>
-      <c r="AE44" s="17">
+      <c r="AE44" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="A45" s="10"/>
+      <c r="D45" s="7">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>18</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W45" s="21">
+      <c r="R45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W45" s="20">
         <v>0.30624999999999997</v>
       </c>
       <c r="Y45">
@@ -3864,47 +3665,47 @@
       <c r="Z45">
         <v>20</v>
       </c>
-      <c r="AD45" s="20">
+      <c r="AD45" s="19">
         <v>630</v>
       </c>
-      <c r="AE45" s="18">
+      <c r="AE45" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:31">
       <c r="A46" s="2"/>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>0.28472222222222221</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>19</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>144</v>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="W46" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W46" s="21">
         <v>0.32500000000000001</v>
       </c>
       <c r="Y46">
@@ -3913,47 +3714,47 @@
       <c r="Z46">
         <v>21</v>
       </c>
-      <c r="AD46" s="19">
+      <c r="AD46" s="18">
         <v>650</v>
       </c>
-      <c r="AE46" s="17">
+      <c r="AE46" s="16">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:31">
       <c r="A47" s="2"/>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>0.28611111111111115</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>20</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>148</v>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W47" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W47" s="20">
         <v>0.4465277777777778</v>
       </c>
       <c r="Y47">
@@ -3962,47 +3763,47 @@
       <c r="Z47">
         <v>22</v>
       </c>
-      <c r="AD47" s="20">
+      <c r="AD47" s="19">
         <v>652</v>
       </c>
-      <c r="AE47" s="18">
+      <c r="AE47" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:31">
       <c r="A48" s="2"/>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>0.30624999999999997</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>21</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>152</v>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W48" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W48" s="21">
         <v>0.5131944444444444</v>
       </c>
       <c r="Y48">
@@ -4011,53 +3812,53 @@
       <c r="Z48">
         <v>42</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA48" s="13">
         <v>5</v>
       </c>
-      <c r="AB48" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD48" s="19">
+      <c r="AB48" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD48" s="18">
         <v>721</v>
       </c>
-      <c r="AE48" s="17">
+      <c r="AE48" s="16">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="11"/>
-      <c r="D49" s="8">
+      <c r="A49" s="10"/>
+      <c r="D49" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>22</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>155</v>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W49" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W49" s="20">
         <v>0.5444444444444444</v>
       </c>
       <c r="Y49">
@@ -4066,51 +3867,51 @@
       <c r="Z49">
         <v>43</v>
       </c>
-      <c r="AD49" s="20">
+      <c r="AD49" s="19">
         <v>748</v>
       </c>
-      <c r="AE49" s="18">
+      <c r="AE49" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:31">
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>1.0618055555555557</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>23</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>160</v>
+      <c r="F50" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W50" s="22">
+        <v>32</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W50" s="21">
         <v>0.56527777777777777</v>
       </c>
       <c r="Y50">
@@ -4119,46 +3920,46 @@
       <c r="Z50">
         <v>45</v>
       </c>
-      <c r="AD50" s="19">
+      <c r="AD50" s="18">
         <v>910</v>
       </c>
-      <c r="AE50" s="17">
+      <c r="AE50" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:31">
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>1.0756944444444445</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>24</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>164</v>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W51" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51" s="20">
         <v>0.58888888888888891</v>
       </c>
       <c r="Y51">
@@ -4167,46 +3968,46 @@
       <c r="Z51">
         <v>44</v>
       </c>
-      <c r="AD51" s="20">
+      <c r="AD51" s="19">
         <v>917</v>
       </c>
-      <c r="AE51" s="18">
+      <c r="AE51" s="17">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>1.0979166666666667</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>25</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>168</v>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="S52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W52" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W52" s="21">
         <v>0.61805555555555558</v>
       </c>
       <c r="Y52">
@@ -4215,52 +4016,52 @@
       <c r="Z52">
         <v>46</v>
       </c>
-      <c r="AD52" s="19">
+      <c r="AD52" s="18">
         <v>941</v>
       </c>
-      <c r="AE52" s="17">
+      <c r="AE52" s="16">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:31">
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>1.1138888888888889</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>1.1138888888888889</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>26</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>172</v>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W53" s="21">
+        <v>32</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W53" s="20">
         <v>0.63055555555555554</v>
       </c>
       <c r="Y53">
@@ -4269,50 +4070,50 @@
       <c r="Z53">
         <v>47</v>
       </c>
-      <c r="AD53" s="20">
+      <c r="AD53" s="19">
         <v>947</v>
       </c>
-      <c r="AE53" s="18">
+      <c r="AE53" s="17">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:31">
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>1.1277777777777778</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12">
+      <c r="C54" s="12"/>
+      <c r="D54" s="11">
         <v>1.1256944444444443</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>27</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>175</v>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W54" s="22">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W54" s="21">
         <v>0.67083333333333339</v>
       </c>
       <c r="Y54">
@@ -4321,47 +4122,47 @@
       <c r="Z54">
         <v>48</v>
       </c>
-      <c r="AD54" s="19">
+      <c r="AD54" s="18">
         <v>1001</v>
       </c>
-      <c r="AE54" s="17">
+      <c r="AE54" s="16">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:31">
-      <c r="D55" s="13"/>
-      <c r="E55" s="9">
+      <c r="D55" s="12"/>
+      <c r="E55" s="8">
         <v>28</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I55" s="6" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>178</v>
+      <c r="H55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="W55" s="21">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W55" s="20">
         <v>0.75138888888888899</v>
       </c>
       <c r="Y55">
@@ -4370,44 +4171,44 @@
       <c r="Z55">
         <v>52</v>
       </c>
-      <c r="AD55" s="20">
+      <c r="AD55" s="19">
         <v>1012</v>
       </c>
-      <c r="AE55" s="18">
+      <c r="AE55" s="17">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:31">
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>1.1451388888888889</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>29</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>182</v>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y56">
         <v>1219</v>
@@ -4415,46 +4216,46 @@
       <c r="Z56">
         <v>53</v>
       </c>
-      <c r="AD56" s="19">
+      <c r="AD56" s="18">
         <v>1043</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AE56" s="16">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:31">
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>0.75138888888888899</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>30</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>171</v>
+      <c r="F57" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="S57" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y57">
         <v>1252</v>
@@ -4462,10 +4263,10 @@
       <c r="Z57">
         <v>54</v>
       </c>
-      <c r="AD57" s="20">
+      <c r="AD57" s="19">
         <v>1154</v>
       </c>
-      <c r="AE57" s="18">
+      <c r="AE57" s="17">
         <v>52</v>
       </c>
     </row>
@@ -4473,33 +4274,33 @@
       <c r="D58">
         <v>1907</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>31</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>189</v>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y58">
         <v>1304</v>
@@ -4507,10 +4308,10 @@
       <c r="Z58">
         <v>55</v>
       </c>
-      <c r="AD58" s="19">
+      <c r="AD58" s="18">
         <v>1219</v>
       </c>
-      <c r="AE58" s="17">
+      <c r="AE58" s="16">
         <v>53</v>
       </c>
     </row>
@@ -4518,36 +4319,36 @@
       <c r="D59">
         <v>2022</v>
       </c>
-      <c r="E59" s="9">
-        <v>32</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>192</v>
+      <c r="E59" s="8">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="I59" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="S59" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y59">
         <v>1322</v>
@@ -4555,10 +4356,10 @@
       <c r="Z59">
         <v>56</v>
       </c>
-      <c r="AD59" s="20">
+      <c r="AD59" s="19">
         <v>1252</v>
       </c>
-      <c r="AE59" s="18">
+      <c r="AE59" s="17">
         <v>54</v>
       </c>
     </row>
@@ -4566,33 +4367,33 @@
       <c r="D60">
         <v>2100</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>33</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>197</v>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y60">
         <v>1334</v>
@@ -4600,10 +4401,10 @@
       <c r="Z60">
         <v>57</v>
       </c>
-      <c r="AD60" s="19">
+      <c r="AD60" s="18">
         <v>1304</v>
       </c>
-      <c r="AE60" s="17">
+      <c r="AE60" s="16">
         <v>55</v>
       </c>
     </row>
@@ -4611,33 +4412,33 @@
       <c r="D61">
         <v>2226</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>34</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>200</v>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="S61" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y61">
         <v>1340</v>
@@ -4645,10 +4446,10 @@
       <c r="Z61">
         <v>58</v>
       </c>
-      <c r="AD61" s="20">
+      <c r="AD61" s="19">
         <v>1322</v>
       </c>
-      <c r="AE61" s="18">
+      <c r="AE61" s="17">
         <v>56</v>
       </c>
     </row>
@@ -4656,33 +4457,33 @@
       <c r="D62">
         <v>2145</v>
       </c>
-      <c r="E62" s="9">
-        <v>35</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>204</v>
+      <c r="E62" s="8">
+        <v>35</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y62">
         <v>1408</v>
@@ -4690,10 +4491,10 @@
       <c r="Z62">
         <v>59</v>
       </c>
-      <c r="AD62" s="19">
+      <c r="AD62" s="18">
         <v>1334</v>
       </c>
-      <c r="AE62" s="17">
+      <c r="AE62" s="16">
         <v>57</v>
       </c>
     </row>
@@ -4701,33 +4502,33 @@
       <c r="D63">
         <v>2246</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>36</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>208</v>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S63" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y63">
         <v>1431</v>
@@ -4735,10 +4536,10 @@
       <c r="Z63">
         <v>60</v>
       </c>
-      <c r="AD63" s="20">
+      <c r="AD63" s="19">
         <v>1340</v>
       </c>
-      <c r="AE63" s="18">
+      <c r="AE63" s="17">
         <v>58</v>
       </c>
     </row>
@@ -4746,35 +4547,35 @@
       <c r="D64">
         <v>2757</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>37</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I64" s="6" t="s">
+      <c r="F64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="S64" s="6" t="s">
-        <v>65</v>
+      <c r="R64" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y64">
         <v>1450</v>
@@ -4782,10 +4583,10 @@
       <c r="Z64">
         <v>61</v>
       </c>
-      <c r="AD64" s="19">
+      <c r="AD64" s="18">
         <v>1408</v>
       </c>
-      <c r="AE64" s="17">
+      <c r="AE64" s="16">
         <v>59</v>
       </c>
     </row>
@@ -4793,33 +4594,33 @@
       <c r="D65">
         <v>2817</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>38</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>217</v>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="S65" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y65">
         <v>1508</v>
@@ -4827,10 +4628,10 @@
       <c r="Z65">
         <v>63</v>
       </c>
-      <c r="AD65" s="20">
+      <c r="AD65" s="19">
         <v>1431</v>
       </c>
-      <c r="AE65" s="18">
+      <c r="AE65" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4838,36 +4639,36 @@
       <c r="D66">
         <v>2833</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>39</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>220</v>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="S66" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y66">
         <v>1606</v>
@@ -4875,10 +4676,10 @@
       <c r="Z66">
         <v>87</v>
       </c>
-      <c r="AD66" s="19">
+      <c r="AD66" s="18">
         <v>1450</v>
       </c>
-      <c r="AE66" s="17">
+      <c r="AE66" s="16">
         <v>61</v>
       </c>
     </row>
@@ -4886,35 +4687,35 @@
       <c r="D67">
         <v>4100</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>40</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>225</v>
+      <c r="F67" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="S67" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y67">
         <v>1657</v>
@@ -4928,44 +4729,44 @@
       <c r="AC67">
         <v>5</v>
       </c>
-      <c r="AD67" s="20">
+      <c r="AD67" s="19">
         <v>1508</v>
       </c>
-      <c r="AE67" s="18">
+      <c r="AE67" s="17">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="4:31">
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>0.37361111111111112</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>41</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>228</v>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="S68" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y68">
         <v>1718</v>
@@ -4979,10 +4780,10 @@
       <c r="AC68">
         <v>5</v>
       </c>
-      <c r="AD68" s="19">
+      <c r="AD68" s="18">
         <v>1606</v>
       </c>
-      <c r="AE68" s="17">
+      <c r="AE68" s="16">
         <v>87</v>
       </c>
     </row>
@@ -4990,31 +4791,31 @@
       <c r="D69">
         <v>910</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>42</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6" t="s">
-        <v>232</v>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S69" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y69">
         <v>1802</v>
@@ -5028,10 +4829,10 @@
       <c r="AC69">
         <v>41</v>
       </c>
-      <c r="AD69" s="20">
+      <c r="AD69" s="19">
         <v>1657</v>
       </c>
-      <c r="AE69" s="18">
+      <c r="AE69" s="17">
         <v>92</v>
       </c>
     </row>
@@ -5039,35 +4840,35 @@
       <c r="D70">
         <v>917</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>43</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>237</v>
+      <c r="F70" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y70">
         <v>1907</v>
@@ -5081,10 +4882,10 @@
       <c r="AC70">
         <v>41</v>
       </c>
-      <c r="AD70" s="19">
+      <c r="AD70" s="18">
         <v>1718</v>
       </c>
-      <c r="AE70" s="17">
+      <c r="AE70" s="16">
         <v>93</v>
       </c>
     </row>
@@ -5092,31 +4893,31 @@
       <c r="D71">
         <v>947</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>44</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6" t="s">
-        <v>241</v>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q71" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S71" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y71">
         <v>2022</v>
@@ -5130,10 +4931,10 @@
       <c r="AC71">
         <v>50</v>
       </c>
-      <c r="AD71" s="20">
+      <c r="AD71" s="19">
         <v>1802</v>
       </c>
-      <c r="AE71" s="18">
+      <c r="AE71" s="17">
         <v>30</v>
       </c>
     </row>
@@ -5141,33 +4942,33 @@
       <c r="D72">
         <v>941</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>45</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>245</v>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="S72" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y72">
         <v>2100</v>
@@ -5181,10 +4982,10 @@
       <c r="AC72">
         <v>50</v>
       </c>
-      <c r="AD72" s="19">
+      <c r="AD72" s="18">
         <v>1907</v>
       </c>
-      <c r="AE72" s="17">
+      <c r="AE72" s="16">
         <v>31</v>
       </c>
     </row>
@@ -5192,38 +4993,38 @@
       <c r="D73">
         <v>1001</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>46</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>249</v>
+      <c r="F73" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P73" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q73" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="S73" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y73">
         <v>2145</v>
@@ -5237,10 +5038,10 @@
       <c r="AC73">
         <v>51</v>
       </c>
-      <c r="AD73" s="20">
+      <c r="AD73" s="19">
         <v>2022</v>
       </c>
-      <c r="AE73" s="18">
+      <c r="AE73" s="17">
         <v>32</v>
       </c>
     </row>
@@ -5248,33 +5049,33 @@
       <c r="D74">
         <v>1012</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>47</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>252</v>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="S74" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y74">
         <v>2226</v>
@@ -5288,44 +5089,44 @@
       <c r="AC74">
         <v>51</v>
       </c>
-      <c r="AD74" s="19">
+      <c r="AD74" s="18">
         <v>2100</v>
       </c>
-      <c r="AE74" s="17">
+      <c r="AE74" s="16">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="4:31">
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>0.4465277777777778</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>48</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>256</v>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="S75" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y75">
         <v>2246</v>
@@ -5339,43 +5140,43 @@
       <c r="AC75">
         <v>51</v>
       </c>
-      <c r="AD75" s="20">
+      <c r="AD75" s="19">
         <v>2145</v>
       </c>
-      <c r="AE75" s="18">
+      <c r="AE75" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="76" spans="4:31">
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>49</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>260</v>
+      <c r="F76" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y76">
         <v>2411</v>
@@ -5389,10 +5190,10 @@
       <c r="AC76">
         <v>80</v>
       </c>
-      <c r="AD76" s="19">
+      <c r="AD76" s="18">
         <v>2226</v>
       </c>
-      <c r="AE76" s="17">
+      <c r="AE76" s="16">
         <v>34</v>
       </c>
     </row>
@@ -5400,36 +5201,36 @@
       <c r="D77">
         <v>2936</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>50</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>263</v>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="S77" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="Y77">
         <v>2450</v>
@@ -5443,10 +5244,10 @@
       <c r="AC77">
         <v>80</v>
       </c>
-      <c r="AD77" s="20">
+      <c r="AD77" s="19">
         <v>2246</v>
       </c>
-      <c r="AE77" s="18">
+      <c r="AE77" s="17">
         <v>36</v>
       </c>
     </row>
@@ -5454,33 +5255,33 @@
       <c r="D78">
         <v>3000</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>51</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>267</v>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y78">
         <v>2529</v>
@@ -5494,10 +5295,10 @@
       <c r="AC78">
         <v>90</v>
       </c>
-      <c r="AD78" s="19">
+      <c r="AD78" s="18">
         <v>2411</v>
       </c>
-      <c r="AE78" s="17">
+      <c r="AE78" s="16">
         <v>95</v>
       </c>
     </row>
@@ -5505,35 +5306,35 @@
       <c r="D79">
         <v>1154</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>52</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>271</v>
+      <c r="F79" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q79" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="S79" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y79">
         <v>2549</v>
@@ -5547,44 +5348,44 @@
       <c r="AC79">
         <v>90</v>
       </c>
-      <c r="AD79" s="20">
+      <c r="AD79" s="19">
         <v>2450</v>
       </c>
-      <c r="AE79" s="18">
+      <c r="AE79" s="17">
         <v>96</v>
       </c>
     </row>
     <row r="80" spans="4:31">
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>0.5131944444444444</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>53</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>274</v>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="S80" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y80">
         <v>2621</v>
@@ -5598,10 +5399,10 @@
       <c r="AC80">
         <v>91</v>
       </c>
-      <c r="AD80" s="19">
+      <c r="AD80" s="18">
         <v>2529</v>
       </c>
-      <c r="AE80" s="17">
+      <c r="AE80" s="16">
         <v>23</v>
       </c>
     </row>
@@ -5609,38 +5410,38 @@
       <c r="D81">
         <v>1252</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>54</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>278</v>
+      <c r="F81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y81">
         <v>2644</v>
@@ -5654,44 +5455,44 @@
       <c r="AC81">
         <v>91</v>
       </c>
-      <c r="AD81" s="20">
+      <c r="AD81" s="19">
         <v>2549</v>
       </c>
-      <c r="AE81" s="18">
+      <c r="AE81" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="4:31">
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>0.5444444444444444</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>55</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>282</v>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="S82" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y82">
         <v>2704</v>
@@ -5699,10 +5500,10 @@
       <c r="Z82">
         <v>27</v>
       </c>
-      <c r="AD82" s="19">
+      <c r="AD82" s="18">
         <v>2621</v>
       </c>
-      <c r="AE82" s="17">
+      <c r="AE82" s="16">
         <v>25</v>
       </c>
     </row>
@@ -5710,81 +5511,81 @@
       <c r="D83">
         <v>1322</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>56</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>286</v>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y83" s="14">
+        <v>32</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y83" s="13">
         <v>2723</v>
       </c>
-      <c r="Z83" s="14">
+      <c r="Z83" s="13">
         <v>28</v>
       </c>
-      <c r="AD83" s="20">
+      <c r="AD83" s="19">
         <v>2644</v>
       </c>
-      <c r="AE83" s="18">
+      <c r="AE83" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="4:31">
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>0.56527777777777777</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>57</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>289</v>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P84" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q84" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R84" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="S84" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y84">
         <v>2729</v>
@@ -5792,10 +5593,10 @@
       <c r="Z84">
         <v>29</v>
       </c>
-      <c r="AD84" s="19">
+      <c r="AD84" s="18">
         <v>2704</v>
       </c>
-      <c r="AE84" s="17">
+      <c r="AE84" s="16">
         <v>27</v>
       </c>
     </row>
@@ -5803,33 +5604,33 @@
       <c r="D85">
         <v>1340</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>58</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>292</v>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q85" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="S85" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y85">
         <v>2757</v>
@@ -5837,44 +5638,44 @@
       <c r="Z85">
         <v>37</v>
       </c>
-      <c r="AD85" s="23">
+      <c r="AD85" s="22">
         <v>2723</v>
       </c>
-      <c r="AE85" s="24">
+      <c r="AE85" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="4:31">
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>0.58888888888888891</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>59</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>296</v>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q86" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y86">
         <v>2817</v>
@@ -5882,10 +5683,10 @@
       <c r="Z86">
         <v>38</v>
       </c>
-      <c r="AD86" s="19">
+      <c r="AD86" s="18">
         <v>2729</v>
       </c>
-      <c r="AE86" s="17">
+      <c r="AE86" s="16">
         <v>29</v>
       </c>
     </row>
@@ -5893,38 +5694,38 @@
       <c r="D87">
         <v>1431</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>60</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>300</v>
+      <c r="F87" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q87" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y87">
         <v>2833</v>
@@ -5932,89 +5733,89 @@
       <c r="Z87">
         <v>39</v>
       </c>
-      <c r="AD87" s="20">
+      <c r="AD87" s="19">
         <v>2757</v>
       </c>
-      <c r="AE87" s="18">
+      <c r="AE87" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="88" spans="4:31">
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>0.61805555555555558</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>61</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>303</v>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q88" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y88" s="14">
+        <v>32</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y88" s="13">
         <v>3037</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z88" s="13">
         <v>85</v>
       </c>
-      <c r="AD88" s="19">
+      <c r="AD88" s="18">
         <v>2817</v>
       </c>
-      <c r="AE88" s="17">
+      <c r="AE88" s="16">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="4:31">
       <c r="D89" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="9">
+        <v>99</v>
+      </c>
+      <c r="E89" s="8">
         <v>62</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>65</v>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y89">
         <v>3107</v>
@@ -6026,49 +5827,49 @@
         <v>50</v>
       </c>
       <c r="AB89" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD89" s="20">
+        <v>416</v>
+      </c>
+      <c r="AD89" s="19">
         <v>2833</v>
       </c>
-      <c r="AE89" s="18">
+      <c r="AE89" s="17">
         <v>39</v>
       </c>
     </row>
     <row r="90" spans="4:31">
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>0.63055555555555554</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>63</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>310</v>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="S90" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y90">
         <v>3215</v>
@@ -6080,12 +5881,12 @@
         <v>51</v>
       </c>
       <c r="AB90" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD90" s="23">
+        <v>417</v>
+      </c>
+      <c r="AD90" s="22">
         <v>3037</v>
       </c>
-      <c r="AE90" s="24">
+      <c r="AE90" s="23">
         <v>85</v>
       </c>
     </row>
@@ -6093,33 +5894,33 @@
       <c r="D91">
         <v>3107</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>64</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>313</v>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q91" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="S91" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y91">
         <v>3250</v>
@@ -6127,10 +5928,10 @@
       <c r="Z91">
         <v>65</v>
       </c>
-      <c r="AD91" s="20">
+      <c r="AD91" s="19">
         <v>3107</v>
       </c>
-      <c r="AE91" s="18">
+      <c r="AE91" s="17">
         <v>64</v>
       </c>
     </row>
@@ -6138,38 +5939,38 @@
       <c r="D92">
         <v>3250</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>65</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>317</v>
+      <c r="F92" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q92" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="S92" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y92">
         <v>3308</v>
@@ -6177,10 +5978,10 @@
       <c r="Z92">
         <v>72</v>
       </c>
-      <c r="AD92" s="19">
+      <c r="AD92" s="18">
         <v>3215</v>
       </c>
-      <c r="AE92" s="17">
+      <c r="AE92" s="16">
         <v>69</v>
       </c>
     </row>
@@ -6188,33 +5989,33 @@
       <c r="D93">
         <v>3418</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>66</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>321</v>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q93" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="S93" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y93">
         <v>3338</v>
@@ -6222,10 +6023,10 @@
       <c r="Z93">
         <v>67</v>
       </c>
-      <c r="AD93" s="20">
+      <c r="AD93" s="19">
         <v>3250</v>
       </c>
-      <c r="AE93" s="18">
+      <c r="AE93" s="17">
         <v>65</v>
       </c>
     </row>
@@ -6233,33 +6034,33 @@
       <c r="D94">
         <v>3338</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>67</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>325</v>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>295</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="S94" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y94">
         <v>3346</v>
@@ -6267,10 +6068,10 @@
       <c r="Z94">
         <v>68</v>
       </c>
-      <c r="AD94" s="19">
+      <c r="AD94" s="18">
         <v>3308</v>
       </c>
-      <c r="AE94" s="17">
+      <c r="AE94" s="16">
         <v>72</v>
       </c>
     </row>
@@ -6278,44 +6079,44 @@
       <c r="D95">
         <v>3346</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>68</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>329</v>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q95" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y95" s="14">
+        <v>32</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y95" s="13">
         <v>3356</v>
       </c>
-      <c r="Z95" s="14">
+      <c r="Z95" s="13">
         <v>86</v>
       </c>
-      <c r="AD95" s="20">
+      <c r="AD95" s="19">
         <v>3338</v>
       </c>
-      <c r="AE95" s="18">
+      <c r="AE95" s="17">
         <v>67</v>
       </c>
     </row>
@@ -6323,33 +6124,33 @@
       <c r="D96">
         <v>3215</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <v>69</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>332</v>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R96" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="S96" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y96">
         <v>3418</v>
@@ -6357,41 +6158,41 @@
       <c r="Z96">
         <v>66</v>
       </c>
-      <c r="AD96" s="19">
+      <c r="AD96" s="18">
         <v>3346</v>
       </c>
-      <c r="AE96" s="17">
+      <c r="AE96" s="16">
         <v>68</v>
       </c>
     </row>
     <row r="97" spans="4:31" ht="25.5" customHeight="1">
-      <c r="E97" s="9">
+      <c r="E97" s="8">
         <v>70</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I97" s="6" t="s">
+      <c r="F97" s="8"/>
+      <c r="G97" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q97" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q97" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R97" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="S97" s="6" t="s">
-        <v>65</v>
+      <c r="R97" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y97">
         <v>3418</v>
@@ -6399,10 +6200,10 @@
       <c r="Z97">
         <v>71</v>
       </c>
-      <c r="AD97" s="23">
+      <c r="AD97" s="22">
         <v>3356</v>
       </c>
-      <c r="AE97" s="24">
+      <c r="AE97" s="23">
         <v>86</v>
       </c>
     </row>
@@ -6410,33 +6211,33 @@
       <c r="D98">
         <v>3418</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>71</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q98" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="S98" s="6" t="s">
-        <v>65</v>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y98">
         <v>3457</v>
@@ -6444,44 +6245,44 @@
       <c r="Z98">
         <v>75</v>
       </c>
-      <c r="AD98" s="19">
+      <c r="AD98" s="18">
         <v>3418</v>
       </c>
-      <c r="AE98" s="17">
+      <c r="AE98" s="16">
         <v>66</v>
       </c>
     </row>
     <row r="99" spans="4:31" ht="22.5" customHeight="1">
-      <c r="D99" s="12">
+      <c r="D99" s="11">
         <v>1.3805555555555555</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>72</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q99" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R99" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="S99" s="6" t="s">
-        <v>65</v>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y99">
         <v>3527</v>
@@ -6489,44 +6290,44 @@
       <c r="Z99">
         <v>84</v>
       </c>
-      <c r="AD99" s="20">
+      <c r="AD99" s="19">
         <v>3418</v>
       </c>
-      <c r="AE99" s="18">
+      <c r="AE99" s="17">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="4:31" ht="22.15" customHeight="1">
+    <row r="100" spans="4:31" ht="22.2" customHeight="1">
       <c r="D100" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="9">
+        <v>99</v>
+      </c>
+      <c r="E100" s="8">
         <v>73</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>65</v>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y100">
         <v>3546</v>
@@ -6534,58 +6335,58 @@
       <c r="Z100">
         <v>76</v>
       </c>
-      <c r="AD100" s="19">
+      <c r="AD100" s="18">
         <v>3457</v>
       </c>
-      <c r="AE100" s="17">
+      <c r="AE100" s="16">
         <v>75</v>
       </c>
     </row>
     <row r="101" spans="4:31" ht="36" customHeight="1">
       <c r="D101" t="s">
-        <v>129</v>
-      </c>
-      <c r="E101" s="9">
+        <v>99</v>
+      </c>
+      <c r="E101" s="8">
         <v>74</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q101" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="S101" s="6" t="s">
-        <v>65</v>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y101" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="Z101" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD101" s="20">
+        <v>422</v>
+      </c>
+      <c r="AD101" s="19">
         <v>3527</v>
       </c>
-      <c r="AE101" s="18">
+      <c r="AE101" s="17">
         <v>84</v>
       </c>
     </row>
@@ -6593,35 +6394,35 @@
       <c r="D102">
         <v>3457</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>75</v>
       </c>
-      <c r="F102" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>355</v>
+      <c r="F102" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q102" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R102" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="S102" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y102">
         <v>3659</v>
@@ -6629,10 +6430,10 @@
       <c r="Z102">
         <v>79</v>
       </c>
-      <c r="AD102" s="19">
+      <c r="AD102" s="18">
         <v>3546</v>
       </c>
-      <c r="AE102" s="17">
+      <c r="AE102" s="16">
         <v>76</v>
       </c>
     </row>
@@ -6640,33 +6441,33 @@
       <c r="D103">
         <v>3546</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>76</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>357</v>
+      <c r="F103" s="8"/>
+      <c r="G103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q103" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R103" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="S103" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="S103" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y103">
         <v>3929</v>
@@ -6674,10 +6475,10 @@
       <c r="Z103">
         <v>88</v>
       </c>
-      <c r="AD103" s="20">
+      <c r="AD103" s="19">
         <v>3556</v>
       </c>
-      <c r="AE103" s="18">
+      <c r="AE103" s="17">
         <v>77</v>
       </c>
     </row>
@@ -6685,33 +6486,33 @@
       <c r="D104">
         <v>3556</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>77</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>357</v>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q104" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="S104" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y104">
         <v>3947</v>
@@ -6719,10 +6520,10 @@
       <c r="Z104">
         <v>89</v>
       </c>
-      <c r="AD104" s="19">
+      <c r="AD104" s="18">
         <v>3659</v>
       </c>
-      <c r="AE104" s="17">
+      <c r="AE104" s="16">
         <v>79</v>
       </c>
     </row>
@@ -6730,33 +6531,33 @@
       <c r="D105">
         <v>4255</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>78</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>363</v>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q105" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R105" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="S105" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y105">
         <v>4100</v>
@@ -6764,10 +6565,10 @@
       <c r="Z105">
         <v>40</v>
       </c>
-      <c r="AD105" s="20">
+      <c r="AD105" s="19">
         <v>3929</v>
       </c>
-      <c r="AE105" s="18">
+      <c r="AE105" s="17">
         <v>88</v>
       </c>
     </row>
@@ -6775,36 +6576,36 @@
       <c r="D106">
         <v>3659</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <v>79</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="I106" s="6" t="s">
+      <c r="F106" s="8"/>
+      <c r="G106" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>366</v>
+      <c r="H106" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P106" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q106" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R106" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="S106" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y106">
         <v>4255</v>
@@ -6812,10 +6613,10 @@
       <c r="Z106">
         <v>78</v>
       </c>
-      <c r="AD106" s="19">
+      <c r="AD106" s="18">
         <v>3947</v>
       </c>
-      <c r="AE106" s="17">
+      <c r="AE106" s="16">
         <v>89</v>
       </c>
     </row>
@@ -6823,35 +6624,35 @@
       <c r="D107">
         <v>3659</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <v>80</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>370</v>
+      <c r="F107" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q107" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="S107" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="S107" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y107">
         <v>4339</v>
@@ -6859,10 +6660,10 @@
       <c r="Z107">
         <v>82</v>
       </c>
-      <c r="AD107" s="20">
+      <c r="AD107" s="19">
         <v>4100</v>
       </c>
-      <c r="AE107" s="18">
+      <c r="AE107" s="17">
         <v>40</v>
       </c>
     </row>
@@ -6870,33 +6671,33 @@
       <c r="D108">
         <v>4416</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <v>81</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>374</v>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q108" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R108" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="S108" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y108">
         <v>4416</v>
@@ -6904,10 +6705,10 @@
       <c r="Z108">
         <v>81</v>
       </c>
-      <c r="AD108" s="19">
+      <c r="AD108" s="18">
         <v>4255</v>
       </c>
-      <c r="AE108" s="17">
+      <c r="AE108" s="16">
         <v>78</v>
       </c>
     </row>
@@ -6915,33 +6716,33 @@
       <c r="D109">
         <v>4339</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>82</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>377</v>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q109" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R109" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="S109" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y109">
         <v>4513</v>
@@ -6949,10 +6750,10 @@
       <c r="Z109">
         <v>83</v>
       </c>
-      <c r="AD109" s="20">
+      <c r="AD109" s="19">
         <v>4339</v>
       </c>
-      <c r="AE109" s="18">
+      <c r="AE109" s="17">
         <v>82</v>
       </c>
     </row>
@@ -6960,33 +6761,33 @@
       <c r="D110">
         <v>4513</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>83</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>380</v>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q110" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="S110" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y110">
         <v>4530</v>
@@ -6994,10 +6795,10 @@
       <c r="Z110">
         <v>94</v>
       </c>
-      <c r="AD110" s="19">
+      <c r="AD110" s="18">
         <v>4416</v>
       </c>
-      <c r="AE110" s="17">
+      <c r="AE110" s="16">
         <v>81</v>
       </c>
     </row>
@@ -7005,657 +6806,657 @@
       <c r="D111">
         <v>3527</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>84</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I111" s="6" t="s">
+      <c r="F111" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q111" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q111" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R111" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="S111" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD111" s="20">
+      <c r="R111" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD111" s="19">
         <v>4513</v>
       </c>
-      <c r="AE111" s="18">
+      <c r="AE111" s="17">
         <v>83</v>
       </c>
     </row>
     <row r="112" spans="4:31">
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>85</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="10" t="s">
+      <c r="F112" s="8"/>
+      <c r="G112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA112" s="13">
         <v>70</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q112" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R112" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="S112" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA112" s="14">
-        <v>70</v>
-      </c>
-      <c r="AB112" s="14"/>
-      <c r="AD112" s="19">
+      <c r="AB112" s="13"/>
+      <c r="AD112" s="18">
         <v>4530</v>
       </c>
-      <c r="AE112" s="17">
+      <c r="AE112" s="16">
         <v>94</v>
       </c>
     </row>
     <row r="113" spans="4:28">
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>86</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>390</v>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q113" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R113" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="S113" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="Q113" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="S113" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="4:28">
-      <c r="D114" s="8">
+      <c r="D114" s="7">
         <v>0.67083333333333339</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>87</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>393</v>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q114" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R114" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="S114" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y114" s="14"/>
-      <c r="Z114" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
     </row>
     <row r="115" spans="4:28">
       <c r="D115">
         <v>3929</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>88</v>
       </c>
-      <c r="F115" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>398</v>
+      <c r="F115" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q115" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R115" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="S115" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R115" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="4:28">
       <c r="D116">
         <v>3947</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>89</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>402</v>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q116" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="R116" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="S116" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AA116">
         <v>80</v>
       </c>
       <c r="AB116" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="4:28">
       <c r="D117">
         <v>3753</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>90</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>405</v>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q117" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="R117" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="S117" s="6" t="s">
-        <v>146</v>
+        <v>32</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="AA117">
         <v>90</v>
       </c>
       <c r="AB117" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="4:28">
       <c r="D118">
         <v>1638</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="8">
         <v>91</v>
       </c>
-      <c r="F118" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>409</v>
+      <c r="F118" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P118" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q118" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R118" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="S118" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="AA118">
         <v>91</v>
       </c>
       <c r="AB118" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="4:28">
       <c r="D119">
         <v>1657</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <v>92</v>
       </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>412</v>
+      <c r="F119" s="8"/>
+      <c r="G119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q119" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R119" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="S119" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R119" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="S119" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="4:28">
       <c r="D120">
         <v>1718</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="8">
         <v>93</v>
       </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>415</v>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q120" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R120" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="S120" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q120" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R120" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="4:28">
       <c r="D121">
         <v>4530</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <v>94</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>419</v>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q121" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R121" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="S121" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R121" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="S121" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="4:28">
       <c r="D122">
         <v>2411</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="8">
         <v>95</v>
       </c>
-      <c r="F122" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G122" s="8"/>
       <c r="H122" s="2" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q122" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R122" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="S122" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R122" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="4:28">
       <c r="D123">
         <v>2450</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <v>96</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="2" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q123" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R123" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="S123" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R123" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="4:28">
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="P124" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q124" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="R124" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="S124" s="6" t="s">
-        <v>65</v>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="P124" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="4:28">
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="Q125" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R125" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="S125" s="6" t="s">
-        <v>65</v>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="Q125" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R125" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="S125" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="4:28">
-      <c r="Q126" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="R126" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="S126" s="6" t="s">
-        <v>65</v>
+      <c r="Q126" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="4:28">
-      <c r="Q127" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="R127" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="S127" s="6" t="s">
-        <v>65</v>
+      <c r="Q127" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="R127" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="4:28">
-      <c r="P128" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q128" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R128" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="S128" s="6" t="s">
-        <v>65</v>
+      <c r="P128" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="16:19">
-      <c r="Q129" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R129" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="S129" s="6" t="s">
-        <v>65</v>
+      <c r="Q129" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R129" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="S129" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="16:19">
-      <c r="Q130" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R130" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="S130" s="6" t="s">
-        <v>65</v>
+      <c r="Q130" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="16:19">
-      <c r="Q131" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R131" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="S131" s="6" t="s">
-        <v>65</v>
+      <c r="Q131" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R131" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="S131" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="16:19">
-      <c r="P132" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q132" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R132" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="S132" s="6" t="s">
-        <v>65</v>
+      <c r="P132" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R132" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="16:19">
-      <c r="Q133" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R133" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="S133" s="6" t="s">
-        <v>65</v>
+      <c r="Q133" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R133" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="S133" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="16:19">
-      <c r="Q134" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R134" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="S134" s="6" t="s">
-        <v>65</v>
+      <c r="Q134" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R134" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="S134" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="16:19">
-      <c r="Q135" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R135" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="S135" s="6" t="s">
-        <v>65</v>
+      <c r="Q135" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R135" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="S135" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="16:19">
-      <c r="Q136" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R136" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="S136" s="6" t="s">
-        <v>65</v>
+      <c r="Q136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R136" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="S136" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="16:19">
-      <c r="P137" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q137" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R137" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="S137" s="6" t="s">
-        <v>65</v>
+      <c r="P137" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q137" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R137" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="S137" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="16:19">
-      <c r="Q138" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R138" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="S138" s="6" t="s">
-        <v>65</v>
+      <c r="Q138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R138" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="16:19">
-      <c r="Q139" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R139" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="S139" s="6" t="s">
-        <v>65</v>
+      <c r="Q139" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R139" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="S139" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7667,15 +7468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8F16BA2B07C304DA01CDE6D05AF9379" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6a86881b7caeabc87e0bafbceb340a01">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5ab8210-b202-47af-99f0-3df454f42b74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7977c2142962ebf0110caf2a4b6a579" ns3:_="">
     <xsd:import namespace="a5ab8210-b202-47af-99f0-3df454f42b74"/>
@@ -7871,6 +7663,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7880,14 +7681,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A683DA-894B-4DD4-A76A-5B520588EE11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC4A9C9-702C-4990-A751-2FB16269AB49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7905,6 +7698,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55A683DA-894B-4DD4-A76A-5B520588EE11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FEB092-72BB-4D4A-9D3E-D14DD1C1C702}">
   <ds:schemaRefs>
